--- a/cvivcenie_6/Users_of_Facebook.xlsx
+++ b/cvivcenie_6/Users_of_Facebook.xlsx
@@ -1,25 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skola\STU\1. R\Metódy inžinierskej práce\github_desktop\MIP_first_semester\cvivcenie_6\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECA2B22-BA55-4E40-89E2-DDB333741D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="6490" yWindow="3010" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Number of users</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +107,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +391,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>329.65</v>
+      </c>
+      <c r="E3" s="1">
+        <f>ROUND((D3/(D13/100)),2)</f>
+        <v>30.02</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>179.65</v>
+      </c>
+      <c r="E4" s="1">
+        <f>ROUND((D4/(D13/100)),2)</f>
+        <v>16.36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>129.85</v>
+      </c>
+      <c r="E5" s="1">
+        <f>ROUND((D5/(D13/100)),2)</f>
+        <v>11.82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>116</v>
+      </c>
+      <c r="E6" s="1">
+        <f>ROUND((D6/(D13/100)),2)</f>
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>89.7</v>
+      </c>
+      <c r="E7" s="1">
+        <f>ROUND((D7/(D13/100)),2)</f>
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E8" s="1">
+        <f>ROUND((D8/(D13/100)),2)</f>
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>50.05</v>
+      </c>
+      <c r="E9" s="1">
+        <f>ROUND((D9/(D13/100)),2)</f>
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>44.7</v>
+      </c>
+      <c r="E10" s="1">
+        <f>ROUND((D10/(D13/100)),2)</f>
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>44.7</v>
+      </c>
+      <c r="E11" s="1">
+        <f>ROUND((D11/(D13/100)),2)</f>
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>43.55</v>
+      </c>
+      <c r="E12" s="1">
+        <f>ROUND((D12/(D13/100)),2)</f>
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <f>SUM(D3:D12)</f>
+        <v>1098.25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/cvivcenie_6/Users_of_Facebook.xlsx
+++ b/cvivcenie_6/Users_of_Facebook.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skola\STU\1. R\Metódy inžinierskej práce\github_desktop\MIP_first_semester\cvivcenie_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECA2B22-BA55-4E40-89E2-DDB333741D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9470DCE-B56C-4FDA-9156-8DE11904E95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6490" yWindow="3010" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6400" yWindow="3010" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$3:$C$12</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$3:$D$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -72,6 +77,18 @@
   </si>
   <si>
     <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -127,6 +144,1052 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sk-SK" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> Leading countries based on Facebook audience size as of July 2020</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sk-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22223446225415949"/>
+          <c:y val="0.14640748279695057"/>
+          <c:w val="0.71853171478565181"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of users</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sk-SK"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$3:$C$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>India</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>United States</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Indonesia</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Brazil</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Philippines</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Vietnam</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Thailand</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Bangladesh</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Pakistan</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>329.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>179.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-737B-4097-9AA1-3F50906451BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="557764896"/>
+        <c:axId val="557764240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="557764896"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557764240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="557764240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557764896"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sk-SK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>92074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5B96CC9-F0C0-F297-AA62-A14C8BD6983B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,5 +1637,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/cvivcenie_6/Users_of_Facebook.xlsx
+++ b/cvivcenie_6/Users_of_Facebook.xlsx
@@ -8,18 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skola\STU\1. R\Metódy inžinierskej práce\github_desktop\MIP_first_semester\cvivcenie_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9470DCE-B56C-4FDA-9156-8DE11904E95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B29072-5FF4-4C3F-A3D0-7035E0321C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6400" yWindow="3010" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$3:$C$12</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$3:$D$12</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -77,18 +72,6 @@
   </si>
   <si>
     <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -161,34 +144,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="sk-SK" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> Leading countries based on Facebook audience size as of July 2020</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -601,7 +556,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1457,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
